--- a/140000-160000.xlsx
+++ b/140000-160000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>CVR</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Opsagt dato:</t>
   </si>
   <si>
+    <t>Årsag</t>
+  </si>
+  <si>
+    <t>Ny leverandør</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -98,6 +104,30 @@
   </si>
   <si>
     <t>Visma Løn &amp; HR</t>
+  </si>
+  <si>
+    <t>Fusionerer med anden virksomhed</t>
+  </si>
+  <si>
+    <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Ikke oplyst</t>
+  </si>
+  <si>
+    <t>Konkurs</t>
+  </si>
+  <si>
+    <t>Bruger ikke produktet</t>
+  </si>
+  <si>
+    <t>Strategisk beslutning</t>
+  </si>
+  <si>
+    <t>Insourcing af lønnen (anden leverandør)</t>
+  </si>
+  <si>
+    <t>DataLøn</t>
   </si>
   <si>
     <t>140000-160000</t>
@@ -462,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,10 +517,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -499,18 +535,21 @@
         <v>159260.11</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2">
         <v>44265</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -519,18 +558,21 @@
         <v>143670.95</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>44286</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -539,18 +581,21 @@
         <v>144961.24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>44315</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -559,18 +604,21 @@
         <v>145281</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
         <v>44376</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -579,18 +627,21 @@
         <v>150297</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>44461</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -599,18 +650,21 @@
         <v>158752.08</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2">
         <v>44483</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -619,18 +673,21 @@
         <v>156000</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>44466</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2022</v>
@@ -639,18 +696,21 @@
         <v>154056.97</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>44620</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2022</v>
@@ -659,18 +719,21 @@
         <v>153000</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2">
         <v>44631</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2022</v>
@@ -679,18 +742,21 @@
         <v>141922</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2">
         <v>44742</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2022</v>
@@ -699,18 +765,21 @@
         <v>142246</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2">
         <v>44783</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>2022</v>
@@ -719,18 +788,24 @@
         <v>145870</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2">
         <v>44834</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>2023</v>
@@ -739,18 +814,21 @@
         <v>150188</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2">
         <v>44939</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>2023</v>
@@ -759,13 +837,16 @@
         <v>140432</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2">
         <v>45061</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/140000-160000.xlsx
+++ b/140000-160000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>CVR</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Ny leverandør</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>36184779</t>
   </si>
   <si>
+    <t>38283715</t>
+  </si>
+  <si>
     <t>BPO Visma Løn og HR</t>
   </si>
   <si>
@@ -124,10 +130,37 @@
     <t>Strategisk beslutning</t>
   </si>
   <si>
-    <t>Insourcing af lønnen (anden leverandør)</t>
-  </si>
-  <si>
     <t>DataLøn</t>
+  </si>
+  <si>
+    <t>2021Q1</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
   </si>
   <si>
     <t>140000-160000</t>
@@ -492,13 +525,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,10 +556,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -535,21 +571,24 @@
         <v>159260.11</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>44265</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -558,21 +597,24 @@
         <v>143670.95</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2">
         <v>44286</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -581,21 +623,24 @@
         <v>144961.24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>44315</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -604,21 +649,24 @@
         <v>145281</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2">
         <v>44376</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -627,21 +675,24 @@
         <v>150297</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2">
         <v>44461</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -650,21 +701,24 @@
         <v>158752.08</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2">
         <v>44483</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -673,21 +727,24 @@
         <v>156000</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>44466</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>2022</v>
@@ -696,21 +753,24 @@
         <v>154056.97</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2">
         <v>44620</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>2022</v>
@@ -719,21 +779,24 @@
         <v>153000</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>44631</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2022</v>
@@ -742,21 +805,24 @@
         <v>141922</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2">
         <v>44742</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>2022</v>
@@ -765,21 +831,24 @@
         <v>142246</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2">
         <v>44783</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>2022</v>
@@ -788,24 +857,27 @@
         <v>145870</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2">
         <v>44834</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>2023</v>
@@ -814,21 +886,21 @@
         <v>150188</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2">
         <v>44939</v>
       </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
       <c r="H14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>2023</v>
@@ -837,16 +909,39 @@
         <v>140432</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2">
         <v>45061</v>
       </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>2023</v>
+      </c>
+      <c r="C16">
+        <v>146634</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45169</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/140000-160000.xlsx
+++ b/140000-160000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>CVR</t>
   </si>
@@ -88,6 +88,18 @@
     <t>38283715</t>
   </si>
   <si>
+    <t>25366034</t>
+  </si>
+  <si>
+    <t>41193093</t>
+  </si>
+  <si>
+    <t>16460516</t>
+  </si>
+  <si>
+    <t>20014784</t>
+  </si>
+  <si>
     <t>BPO Visma Løn og HR</t>
   </si>
   <si>
@@ -112,6 +124,12 @@
     <t>Visma Løn &amp; HR</t>
   </si>
   <si>
+    <t>BPO Visma Løn</t>
+  </si>
+  <si>
+    <t>Visma Løn</t>
+  </si>
+  <si>
     <t>Fusionerer med anden virksomhed</t>
   </si>
   <si>
@@ -133,6 +151,15 @@
     <t>DataLøn</t>
   </si>
   <si>
+    <t>EG Lønservice</t>
+  </si>
+  <si>
+    <t>SD Worx</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
     <t>2021Q1</t>
   </si>
   <si>
@@ -161,6 +188,12 @@
   </si>
   <si>
     <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
   </si>
   <si>
     <t>140000-160000</t>
@@ -525,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,19 +604,19 @@
         <v>159260.11</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2">
         <v>44265</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -597,19 +630,19 @@
         <v>143670.95</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2">
         <v>44286</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -623,19 +656,19 @@
         <v>144961.24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2">
         <v>44315</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -649,19 +682,19 @@
         <v>145281</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2">
         <v>44376</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -675,19 +708,19 @@
         <v>150297</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <v>44461</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -701,19 +734,19 @@
         <v>158752.08</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2">
         <v>44483</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -727,19 +760,19 @@
         <v>156000</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2">
         <v>44466</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -753,19 +786,19 @@
         <v>154056.97</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2">
         <v>44620</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -779,19 +812,19 @@
         <v>153000</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
         <v>44631</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -805,19 +838,19 @@
         <v>141922</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2">
         <v>44742</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -831,19 +864,19 @@
         <v>142246</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2">
         <v>44783</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -857,22 +890,22 @@
         <v>145870</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2">
         <v>44834</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -886,16 +919,16 @@
         <v>150188</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2">
         <v>44939</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -909,16 +942,16 @@
         <v>140432</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2">
         <v>45061</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -932,16 +965,117 @@
         <v>146634</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2">
         <v>45169</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>2024</v>
+      </c>
+      <c r="C17">
+        <v>141595.93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45442</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>2024</v>
+      </c>
+      <c r="C18">
+        <v>140256.16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45399</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>2024</v>
+      </c>
+      <c r="C19">
+        <v>146340</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45462</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>2024</v>
+      </c>
+      <c r="C20">
+        <v>158161.92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45545</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
